--- a/Dataframe.xlsx
+++ b/Dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53D2C274-127B-4B7D-A8A9-81F52852BDC9}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{819F53F3-BB2F-4840-917B-D679E63FD10D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Línea</t>
   </si>
@@ -81,18 +81,6 @@
     <t>LAYS CEBOLLA CARAMELIZADA 85GX25</t>
   </si>
   <si>
-    <t>5 de junio</t>
-  </si>
-  <si>
-    <t>6 de junio</t>
-  </si>
-  <si>
-    <t>7 de junio</t>
-  </si>
-  <si>
-    <t>8 de junio</t>
-  </si>
-  <si>
     <t>FRYPACK</t>
   </si>
   <si>
@@ -112,6 +100,12 @@
   </si>
   <si>
     <t>LAYS QUESO Y PIMIENTA 85GX25</t>
+  </si>
+  <si>
+    <t>9-jun</t>
+  </si>
+  <si>
+    <t>12-jun</t>
   </si>
 </sst>
 </file>
@@ -153,11 +147,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,27 +454,33 @@
     <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="4">
+        <v>45082</v>
+      </c>
+      <c r="D1" s="4">
+        <v>45083</v>
+      </c>
+      <c r="E1" s="4">
+        <v>45084</v>
+      </c>
+      <c r="F1" s="4">
+        <v>45085</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -489,13 +494,19 @@
         <v>5.1214608556736563</v>
       </c>
       <c r="E2" s="2">
-        <v>5.1214608556736563</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.2576312662050748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -509,13 +520,19 @@
         <v>10.200368519143909</v>
       </c>
       <c r="E3" s="2">
-        <v>10.200368519143909</v>
+        <v>12.660506184546698</v>
       </c>
       <c r="F3" s="2">
-        <v>17.0217022516409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.304801759214161</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13.448627194409992</v>
+      </c>
+      <c r="H3" s="2">
+        <v>15.261967779093684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -529,13 +546,19 @@
         <v>7.7413392603874707</v>
       </c>
       <c r="E4" s="2">
-        <v>7.7413392603874707</v>
+        <v>17.268694184539548</v>
       </c>
       <c r="F4" s="2">
-        <v>15.57922631418996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.990243152180277</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18.505905110729802</v>
+      </c>
+      <c r="H4" s="2">
+        <v>18.152062957099719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -549,13 +572,19 @@
         <v>12.739581351535815</v>
       </c>
       <c r="E5" s="2">
-        <v>12.739581351535815</v>
+        <v>20.284107897115465</v>
       </c>
       <c r="F5" s="2">
-        <v>13.286166547165523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.282784015060884</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18.877445359546506</v>
+      </c>
+      <c r="H5" s="2">
+        <v>21.289386798917953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -569,13 +598,19 @@
         <v>5.8062340736450171</v>
       </c>
       <c r="E6" s="2">
-        <v>5.8062340736450171</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>2.5898683674941272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -589,13 +624,19 @@
         <v>9.3598843846140731</v>
       </c>
       <c r="E7" s="2">
-        <v>9.3598843846140731</v>
+        <v>9.5953065940943123</v>
       </c>
       <c r="F7" s="2">
-        <v>5.1307877259244101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.707621182446195</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9.1969667110451123</v>
+      </c>
+      <c r="H7" s="2">
+        <v>11.353553897619783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -609,13 +650,19 @@
         <v>10.804643852360748</v>
       </c>
       <c r="E8" s="2">
-        <v>10.804643852360748</v>
+        <v>9.4503885507905903</v>
       </c>
       <c r="F8" s="2">
-        <v>3.5777413280568027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.4224564551063859</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6.1405538419242616</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.8362348089562586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -629,13 +676,19 @@
         <v>6.4053218474095814</v>
       </c>
       <c r="E9" s="2">
-        <v>6.4053218474095814</v>
+        <v>12.05856261343326</v>
       </c>
       <c r="F9" s="2">
-        <v>7.4097742962008395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.869269925948988</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12.224280084523084</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12.015947868083865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -649,13 +702,19 @@
         <v>10.713191556838282</v>
       </c>
       <c r="E10" s="2">
-        <v>10.713191556838282</v>
+        <v>12.539509799019589</v>
       </c>
       <c r="F10" s="2">
-        <v>12.607252101626827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.669704858550739</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10.487881438208545</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9.0733515414336701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -669,18 +728,24 @@
         <v>11.036111706796213</v>
       </c>
       <c r="E11" s="2">
-        <v>11.036111706796213</v>
+        <v>19.254146075966791</v>
       </c>
       <c r="F11" s="2">
-        <v>14.451534674616344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.469923747895955</v>
+      </c>
+      <c r="G11" s="2">
+        <v>17.331663549619034</v>
+      </c>
+      <c r="H11" s="2">
+        <v>17.184771307810873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -694,8 +759,14 @@
       <c r="F12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -709,18 +780,24 @@
         <v>7.0338444044704094</v>
       </c>
       <c r="E13" s="2">
-        <v>7.0338444044704094</v>
+        <v>14.586168576735787</v>
       </c>
       <c r="F13" s="2">
-        <v>16.951018785138942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.129934195829577</v>
+      </c>
+      <c r="G13" s="2">
+        <v>14.464853778805054</v>
+      </c>
+      <c r="H13" s="2">
+        <v>13.872804190709424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -734,13 +811,19 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -754,8 +837,14 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -769,18 +858,24 @@
         <v>7.5018308818370025</v>
       </c>
       <c r="E16" s="2">
-        <v>7.5018308818370025</v>
+        <v>16.074915790463564</v>
       </c>
       <c r="F16" s="2">
-        <v>11.946987412125926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.146593404953883</v>
+      </c>
+      <c r="G16" s="2">
+        <v>14.375659010090962</v>
+      </c>
+      <c r="H16" s="2">
+        <v>13.935646874231191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -794,13 +889,19 @@
       <c r="F17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -812,6 +913,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe.xlsx
+++ b/Dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{819F53F3-BB2F-4840-917B-D679E63FD10D}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{14DF73EE-4C53-40F8-9889-93E85D03466B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Línea</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>12-jun</t>
+  </si>
+  <si>
+    <t>5-jun</t>
+  </si>
+  <si>
+    <t>6-jun</t>
+  </si>
+  <si>
+    <t>7-jun</t>
+  </si>
+  <si>
+    <t>8-jun</t>
   </si>
 </sst>
 </file>
@@ -147,14 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,7 +452,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,22 +472,22 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
-        <v>45082</v>
-      </c>
-      <c r="D1" s="4">
-        <v>45083</v>
-      </c>
-      <c r="E1" s="4">
-        <v>45084</v>
-      </c>
-      <c r="F1" s="4">
-        <v>45085</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
